--- a/Technology/Software/Splunk.xlsx
+++ b/Technology/Software/Splunk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4258838-1939-004C-AE8C-BE71DF060391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EED790-22BE-DB47-A7B3-67CB6B5C848C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1533,6 +1533,7 @@
         <c:axId val="1850979023"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-1500000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2335,13 +2336,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>136.41499999999999</v>
+    <v>116.84</v>
     <v>65</v>
-    <v>1.2941</v>
-    <v>-0.21</v>
-    <v>-2.2989999999999998E-3</v>
-    <v>0.31</v>
-    <v>3.4020000000000001E-3</v>
+    <v>1.2827999999999999</v>
+    <v>0.17</v>
+    <v>1.761E-3</v>
+    <v>7.31</v>
+    <v>7.5602000000000003E-2</v>
     <v>USD</v>
     <v>Splunk Inc. (Splunk) is engaged in the development and marketing of cloud services and licensed software solutions. It offers the Unified Security and Observability Platform, which is comprised of Splunk Security and Splunk Security. Splunk Security includes Splunk Enterprise Security, Splunk Security Orchestration, Automation and Response, Splunk User Behavior Analytics, Splunk Attack Analyzer, and Splunk Mission Control. Splunk Observability includes Splunk Information Technology Service Intelligence, and Splunk Observability Cloud, which provides fully integrated capabilities for Splunk Application Performance Monitoring, Splunk Infrastructure Monitoring, Splunk Real User Monitoring, and Splunk Synthetic Monitoring. It provides application programming interfaces, software development kits, and other interfaces that enable its network of third-party developers, partners, and customers to build content that configures and extends its solutions to accommodate specific use cases.</v>
     <v>8000</v>
@@ -2349,24 +2350,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>270 Brannan Street, SAN FRANCISCO, CA, 94107 US</v>
-    <v>91.64</v>
+    <v>97.47</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.996459154689</v>
+    <v>45070.942205022657</v>
     <v>0</v>
-    <v>90.21</v>
-    <v>15080360000</v>
+    <v>94.8</v>
+    <v>16008595878</v>
     <v>SPLUNK INC.</v>
     <v>SPLUNK INC.</v>
-    <v>91.15</v>
-    <v>91.33</v>
-    <v>91.12</v>
-    <v>91.43</v>
-    <v>165500000</v>
+    <v>95.5</v>
+    <v>96.52</v>
+    <v>96.69</v>
+    <v>104</v>
+    <v>165566200</v>
     <v>SPLK</v>
     <v>SPLUNK INC. (XNAS:SPLK)</v>
-    <v>811124</v>
-    <v>1270677</v>
+    <v>2137609</v>
+    <v>1142773</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2528,9 +2529,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2950,10 +2951,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U70" sqref="U70"/>
+      <selection pane="bottomRight" activeCell="U78" sqref="U78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3162,10 +3163,10 @@
         <v>3875000000</v>
       </c>
       <c r="T3" s="30">
-        <v>4378000000</v>
+        <v>4376000000</v>
       </c>
       <c r="U3" s="30">
-        <v>5156000000</v>
+        <v>5117000000</v>
       </c>
       <c r="V3" s="30">
         <v>6662000000</v>
@@ -3261,15 +3262,15 @@
       </c>
       <c r="T4" s="16">
         <f t="shared" si="0"/>
-        <v>0.12980645161290316</v>
+        <v>0.12929032258064521</v>
       </c>
       <c r="U4" s="16">
         <f t="shared" si="0"/>
-        <v>0.1777067153951577</v>
+        <v>0.1693327239488116</v>
       </c>
       <c r="V4" s="16">
         <f t="shared" si="0"/>
-        <v>0.29208688906128777</v>
+        <v>0.30193472737932381</v>
       </c>
       <c r="W4" s="16">
         <f t="shared" si="0"/>
@@ -4126,15 +4127,15 @@
       </c>
       <c r="Y16" s="32">
         <f>Z101/R3</f>
-        <v>4.1274124806908485</v>
+        <v>4.3814655900252566</v>
       </c>
       <c r="Z16" s="32">
         <f>Z101/R28</f>
-        <v>-54.272840474768053</v>
+        <v>-57.613476754647991</v>
       </c>
       <c r="AA16" s="33">
         <f>Z101/R106</f>
-        <v>35.298154615334198</v>
+        <v>37.470849003342479</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -8795,7 +8796,7 @@
       </c>
       <c r="Z95" s="58" cm="1">
         <f t="array" ref="Z95">_FV(A1,"Beta")</f>
-        <v>1.2941</v>
+        <v>1.2827999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8920,7 +8921,7 @@
       </c>
       <c r="Z97" s="38">
         <f>(Z94)+((Z95)*(Z96-Z94))</f>
-        <v>9.6661005000000008E-2</v>
+        <v>9.6174540000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -9106,7 +9107,7 @@
       </c>
       <c r="Z100" s="36">
         <f>Z99/Z103</f>
-        <v>0.21282513186821733</v>
+        <v>0.20298973393427905</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -9169,7 +9170,7 @@
       </c>
       <c r="Z101" s="40" cm="1">
         <f t="array" ref="Z101">_FV(A1,"Market cap",TRUE)</f>
-        <v>15080360000</v>
+        <v>16008595878</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -9232,7 +9233,7 @@
       </c>
       <c r="Z102" s="36">
         <f>Z101/Z103</f>
-        <v>0.78717486813178261</v>
+        <v>0.7970102660657209</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -9295,7 +9296,7 @@
       </c>
       <c r="Z103" s="41">
         <f>Z99+Z101</f>
-        <v>19157573000</v>
+        <v>20085808878</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9438,7 +9439,7 @@
       </c>
       <c r="Z105" s="28">
         <f>(Z100*Z92)+(Z102*Z97)</f>
-        <v>7.8603937512793612E-2</v>
+        <v>7.9050700516156133E-2</v>
       </c>
       <c r="AA105" s="15"/>
       <c r="AH105" s="15"/>
@@ -9517,23 +9518,23 @@
       </c>
       <c r="S106" s="42">
         <f>R106*(1+$Z$106)</f>
-        <v>490947036.63835078</v>
+        <v>491028869.41377169</v>
       </c>
       <c r="T106" s="42">
         <f t="shared" ref="T106:W106" si="17">S106*(1+$Z$106)</f>
-        <v>564169466.38323832</v>
+        <v>564357557.55186188</v>
       </c>
       <c r="U106" s="42">
         <f t="shared" si="17"/>
-        <v>648312675.39274228</v>
+        <v>648636918.53017199</v>
       </c>
       <c r="V106" s="42">
         <f t="shared" si="17"/>
-        <v>745005446.27025342</v>
+        <v>745502290.96852994</v>
       </c>
       <c r="W106" s="42">
         <f t="shared" si="17"/>
-        <v>856119486.84499371</v>
+        <v>856833229.750049</v>
       </c>
       <c r="X106" s="43" t="s">
         <v>146</v>
@@ -9543,7 +9544,7 @@
       </c>
       <c r="Z106" s="45">
         <f>(SUM(S4:W4)/5)</f>
-        <v>0.14914527287151297</v>
+        <v>0.14933681643939939</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -9571,7 +9572,7 @@
       <c r="V107" s="43"/>
       <c r="W107" s="46">
         <f>W106*(1+Z107)/(Z108-Z107)</f>
-        <v>16370485354.861868</v>
+        <v>16248708196.321783</v>
       </c>
       <c r="X107" s="47" t="s">
         <v>148</v>
@@ -9586,23 +9587,23 @@
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="S108" s="46">
         <f t="shared" ref="S108:U108" si="18">S107+S106</f>
-        <v>490947036.63835078</v>
+        <v>491028869.41377169</v>
       </c>
       <c r="T108" s="46">
         <f t="shared" si="18"/>
-        <v>564169466.38323832</v>
+        <v>564357557.55186188</v>
       </c>
       <c r="U108" s="46">
         <f t="shared" si="18"/>
-        <v>648312675.39274228</v>
+        <v>648636918.53017199</v>
       </c>
       <c r="V108" s="46">
         <f>V107+V106</f>
-        <v>745005446.27025342</v>
+        <v>745502290.96852994</v>
       </c>
       <c r="W108" s="46">
         <f>W107+W106</f>
-        <v>17226604841.706863</v>
+        <v>17105541426.071833</v>
       </c>
       <c r="X108" s="47" t="s">
         <v>144</v>
@@ -9612,7 +9613,7 @@
       </c>
       <c r="Z108" s="51">
         <f>Z105</f>
-        <v>7.8603937512793612E-2</v>
+        <v>7.9050700516156133E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -9627,7 +9628,7 @@
       </c>
       <c r="T110" s="40">
         <f>NPV(Z108,S108,T108,U108,V108,W108)</f>
-        <v>13807409162.519653</v>
+        <v>13698963682.132511</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -9654,7 +9655,7 @@
       </c>
       <c r="T113" s="40">
         <f>T110+T111-T112</f>
-        <v>11737130162.519653</v>
+        <v>11628684682.132511</v>
       </c>
     </row>
     <row r="114" spans="19:20" ht="20" x14ac:dyDescent="0.25">
@@ -9672,7 +9673,7 @@
       </c>
       <c r="T115" s="60">
         <f>T113/T114</f>
-        <v>63.930067674014296</v>
+        <v>63.339384363520729</v>
       </c>
     </row>
     <row r="116" spans="19:20" ht="20" x14ac:dyDescent="0.25">
@@ -9681,7 +9682,7 @@
       </c>
       <c r="T116" s="59" cm="1">
         <f t="array" ref="T116">_FV(A1,"Price")</f>
-        <v>91.12</v>
+        <v>96.69</v>
       </c>
     </row>
     <row r="117" spans="19:20" ht="20" x14ac:dyDescent="0.25">
@@ -9690,7 +9691,7 @@
       </c>
       <c r="T117" s="56">
         <f>T115/T116-1</f>
-        <v>-0.29839697460475978</v>
+        <v>-0.34492311135049403</v>
       </c>
     </row>
     <row r="118" spans="19:20" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Splunk.xlsx
+++ b/Technology/Software/Splunk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EED790-22BE-DB47-A7B3-67CB6B5C848C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5015BAD-D892-7C4C-A173-40131CED55F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2338,11 +2338,11 @@
     <v>Powered by Refinitiv</v>
     <v>116.84</v>
     <v>65</v>
-    <v>1.2827999999999999</v>
-    <v>0.17</v>
-    <v>1.761E-3</v>
-    <v>7.31</v>
-    <v>7.5602000000000003E-2</v>
+    <v>1.2848999999999999</v>
+    <v>3.88</v>
+    <v>4.0542999999999996E-2</v>
+    <v>0.37</v>
+    <v>3.7159999999999997E-3</v>
     <v>USD</v>
     <v>Splunk Inc. (Splunk) is engaged in the development and marketing of cloud services and licensed software solutions. It offers the Unified Security and Observability Platform, which is comprised of Splunk Security and Splunk Security. Splunk Security includes Splunk Enterprise Security, Splunk Security Orchestration, Automation and Response, Splunk User Behavior Analytics, Splunk Attack Analyzer, and Splunk Mission Control. Splunk Observability includes Splunk Information Technology Service Intelligence, and Splunk Observability Cloud, which provides fully integrated capabilities for Splunk Application Performance Monitoring, Splunk Infrastructure Monitoring, Splunk Real User Monitoring, and Splunk Synthetic Monitoring. It provides application programming interfaces, software development kits, and other interfaces that enable its network of third-party developers, partners, and customers to build content that configures and extends its solutions to accommodate specific use cases.</v>
     <v>8000</v>
@@ -2350,24 +2350,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>270 Brannan Street, SAN FRANCISCO, CA, 94107 US</v>
-    <v>97.47</v>
+    <v>101.78</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45070.942205022657</v>
+    <v>45072.988794860939</v>
     <v>0</v>
-    <v>94.8</v>
-    <v>16008595878</v>
+    <v>95.7</v>
+    <v>16490450000</v>
     <v>SPLUNK INC.</v>
     <v>SPLUNK INC.</v>
-    <v>95.5</v>
-    <v>96.52</v>
-    <v>96.69</v>
-    <v>104</v>
-    <v>165566200</v>
+    <v>95.7</v>
+    <v>95.7</v>
+    <v>99.58</v>
+    <v>99.95</v>
+    <v>165600000</v>
     <v>SPLK</v>
     <v>SPLUNK INC. (XNAS:SPLK)</v>
-    <v>2137609</v>
-    <v>1142773</v>
+    <v>2779039</v>
+    <v>1430809</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2529,9 +2529,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2951,10 +2951,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U78" sqref="U78"/>
+      <selection pane="bottomRight" activeCell="Q114" sqref="Q114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4127,15 +4127,15 @@
       </c>
       <c r="Y16" s="32">
         <f>Z101/R3</f>
-        <v>4.3814655900252566</v>
+        <v>4.5133464414780819</v>
       </c>
       <c r="Z16" s="32">
         <f>Z101/R28</f>
-        <v>-57.613476754647991</v>
+        <v>-59.347625799857482</v>
       </c>
       <c r="AA16" s="33">
         <f>Z101/R106</f>
-        <v>37.470849003342479</v>
+        <v>38.598710758658143</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -8796,7 +8796,7 @@
       </c>
       <c r="Z95" s="58" cm="1">
         <f t="array" ref="Z95">_FV(A1,"Beta")</f>
-        <v>1.2827999999999999</v>
+        <v>1.2848999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8921,7 +8921,7 @@
       </c>
       <c r="Z97" s="38">
         <f>(Z94)+((Z95)*(Z96-Z94))</f>
-        <v>9.6174540000000003E-2</v>
+        <v>9.6264945000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -9107,7 +9107,7 @@
       </c>
       <c r="Z100" s="36">
         <f>Z99/Z103</f>
-        <v>0.20298973393427905</v>
+        <v>0.19823414065078759</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -9170,7 +9170,7 @@
       </c>
       <c r="Z101" s="40" cm="1">
         <f t="array" ref="Z101">_FV(A1,"Market cap",TRUE)</f>
-        <v>16008595878</v>
+        <v>16490450000</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="Z102" s="36">
         <f>Z101/Z103</f>
-        <v>0.7970102660657209</v>
+        <v>0.80176585934921241</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -9296,7 +9296,7 @@
       </c>
       <c r="Z103" s="41">
         <f>Z99+Z101</f>
-        <v>20085808878</v>
+        <v>20567663000</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9439,7 +9439,7 @@
       </c>
       <c r="Z105" s="28">
         <f>(Z100*Z92)+(Z102*Z97)</f>
-        <v>7.9050700516156133E-2</v>
+        <v>7.9524357235055437E-2</v>
       </c>
       <c r="AA105" s="15"/>
       <c r="AH105" s="15"/>
@@ -9572,7 +9572,7 @@
       <c r="V107" s="43"/>
       <c r="W107" s="46">
         <f>W106*(1+Z107)/(Z108-Z107)</f>
-        <v>16248708196.321783</v>
+        <v>16107554587.166098</v>
       </c>
       <c r="X107" s="47" t="s">
         <v>148</v>
@@ -9603,7 +9603,7 @@
       </c>
       <c r="W108" s="46">
         <f>W107+W106</f>
-        <v>17105541426.071833</v>
+        <v>16964387816.916147</v>
       </c>
       <c r="X108" s="47" t="s">
         <v>144</v>
@@ -9613,7 +9613,7 @@
       </c>
       <c r="Z108" s="51">
         <f>Z105</f>
-        <v>7.9050700516156133E-2</v>
+        <v>7.9524357235055437E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="T110" s="40">
         <f>NPV(Z108,S108,T108,U108,V108,W108)</f>
-        <v>13698963682.132511</v>
+        <v>13574786501.726437</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -9655,7 +9655,7 @@
       </c>
       <c r="T113" s="40">
         <f>T110+T111-T112</f>
-        <v>11628684682.132511</v>
+        <v>11504507501.726437</v>
       </c>
     </row>
     <row r="114" spans="19:20" ht="20" x14ac:dyDescent="0.25">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="T115" s="60">
         <f>T113/T114</f>
-        <v>63.339384363520729</v>
+        <v>62.663013271353819</v>
       </c>
     </row>
     <row r="116" spans="19:20" ht="20" x14ac:dyDescent="0.25">
@@ -9682,7 +9682,7 @@
       </c>
       <c r="T116" s="59" cm="1">
         <f t="array" ref="T116">_FV(A1,"Price")</f>
-        <v>96.69</v>
+        <v>99.58</v>
       </c>
     </row>
     <row r="117" spans="19:20" ht="20" x14ac:dyDescent="0.25">
@@ -9691,7 +9691,7 @@
       </c>
       <c r="T117" s="56">
         <f>T115/T116-1</f>
-        <v>-0.34492311135049403</v>
+        <v>-0.37072692035193999</v>
       </c>
     </row>
     <row r="118" spans="19:20" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Splunk.xlsx
+++ b/Technology/Software/Splunk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5015BAD-D892-7C4C-A173-40131CED55F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0BDBA1-60CA-5A46-8DE2-CCB58D76A31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2338,11 +2338,9 @@
     <v>Powered by Refinitiv</v>
     <v>116.84</v>
     <v>65</v>
-    <v>1.2848999999999999</v>
-    <v>3.88</v>
-    <v>4.0542999999999996E-2</v>
-    <v>0.37</v>
-    <v>3.7159999999999997E-3</v>
+    <v>1.2753000000000001</v>
+    <v>0.02</v>
+    <v>1.9149999999999999E-4</v>
     <v>USD</v>
     <v>Splunk Inc. (Splunk) is engaged in the development and marketing of cloud services and licensed software solutions. It offers the Unified Security and Observability Platform, which is comprised of Splunk Security and Splunk Security. Splunk Security includes Splunk Enterprise Security, Splunk Security Orchestration, Automation and Response, Splunk User Behavior Analytics, Splunk Attack Analyzer, and Splunk Mission Control. Splunk Observability includes Splunk Information Technology Service Intelligence, and Splunk Observability Cloud, which provides fully integrated capabilities for Splunk Application Performance Monitoring, Splunk Infrastructure Monitoring, Splunk Real User Monitoring, and Splunk Synthetic Monitoring. It provides application programming interfaces, software development kits, and other interfaces that enable its network of third-party developers, partners, and customers to build content that configures and extends its solutions to accommodate specific use cases.</v>
     <v>8000</v>
@@ -2350,24 +2348,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>270 Brannan Street, SAN FRANCISCO, CA, 94107 US</v>
-    <v>101.78</v>
+    <v>104.8699</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.988794860939</v>
+    <v>45099.999617603906</v>
     <v>0</v>
-    <v>95.7</v>
-    <v>16490450000</v>
+    <v>102.86</v>
+    <v>17298576000</v>
     <v>SPLUNK INC.</v>
     <v>SPLUNK INC.</v>
-    <v>95.7</v>
-    <v>95.7</v>
-    <v>99.58</v>
-    <v>99.95</v>
+    <v>103.53</v>
+    <v>104.44</v>
+    <v>104.46</v>
+    <v>103.5</v>
     <v>165600000</v>
     <v>SPLK</v>
     <v>SPLUNK INC. (XNAS:SPLK)</v>
-    <v>2779039</v>
-    <v>1430809</v>
+    <v>78</v>
+    <v>1952720</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2399,8 +2397,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2437,7 +2433,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2455,9 +2451,7 @@
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2522,8 +2516,6 @@
       <v>9</v>
       <v>4</v>
       <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
       <v>at close</v>
@@ -2532,8 +2524,6 @@
       <v>Source: Nasdaq</v>
       <v>GMT</v>
       <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2578,8 +2568,6 @@
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
     <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2588,8 +2576,6 @@
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
     <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2951,10 +2937,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q114" sqref="Q114"/>
+      <selection pane="bottomRight" activeCell="Q115" sqref="Q115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4127,15 +4113,15 @@
       </c>
       <c r="Y16" s="32">
         <f>Z101/R3</f>
-        <v>4.5133464414780819</v>
+        <v>4.7345261307143316</v>
       </c>
       <c r="Z16" s="32">
         <f>Z101/R28</f>
-        <v>-59.347625799857482</v>
+        <v>-62.255997581533279</v>
       </c>
       <c r="AA16" s="33">
         <f>Z101/R106</f>
-        <v>38.598710758658143</v>
+        <v>40.490267491831062</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -8796,7 +8782,7 @@
       </c>
       <c r="Z95" s="58" cm="1">
         <f t="array" ref="Z95">_FV(A1,"Beta")</f>
-        <v>1.2848999999999999</v>
+        <v>1.2753000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8921,7 +8907,7 @@
       </c>
       <c r="Z97" s="38">
         <f>(Z94)+((Z95)*(Z96-Z94))</f>
-        <v>9.6264945000000005E-2</v>
+        <v>9.5851665000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -9107,7 +9093,7 @@
       </c>
       <c r="Z100" s="36">
         <f>Z99/Z103</f>
-        <v>0.19823414065078759</v>
+        <v>0.19073976637774634</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -9170,7 +9156,7 @@
       </c>
       <c r="Z101" s="40" cm="1">
         <f t="array" ref="Z101">_FV(A1,"Market cap",TRUE)</f>
-        <v>16490450000</v>
+        <v>17298576000</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -9233,7 +9219,7 @@
       </c>
       <c r="Z102" s="36">
         <f>Z101/Z103</f>
-        <v>0.80176585934921241</v>
+        <v>0.80926023362225363</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -9296,7 +9282,7 @@
       </c>
       <c r="Z103" s="41">
         <f>Z99+Z101</f>
-        <v>20567663000</v>
+        <v>21375789000</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9439,7 +9425,7 @@
       </c>
       <c r="Z105" s="28">
         <f>(Z100*Z92)+(Z102*Z97)</f>
-        <v>7.9524357235055437E-2</v>
+        <v>7.9822795282832454E-2</v>
       </c>
       <c r="AA105" s="15"/>
       <c r="AH105" s="15"/>
@@ -9572,7 +9558,7 @@
       <c r="V107" s="43"/>
       <c r="W107" s="46">
         <f>W106*(1+Z107)/(Z108-Z107)</f>
-        <v>16107554587.166098</v>
+        <v>16019870128.162218</v>
       </c>
       <c r="X107" s="47" t="s">
         <v>148</v>
@@ -9603,7 +9589,7 @@
       </c>
       <c r="W108" s="46">
         <f>W107+W106</f>
-        <v>16964387816.916147</v>
+        <v>16876703357.912268</v>
       </c>
       <c r="X108" s="47" t="s">
         <v>144</v>
@@ -9613,7 +9599,7 @@
       </c>
       <c r="Z108" s="51">
         <f>Z105</f>
-        <v>7.9524357235055437E-2</v>
+        <v>7.9822795282832454E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -9628,7 +9614,7 @@
       </c>
       <c r="T110" s="40">
         <f>NPV(Z108,S108,T108,U108,V108,W108)</f>
-        <v>13574786501.726437</v>
+        <v>13497652486.322182</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -9655,7 +9641,7 @@
       </c>
       <c r="T113" s="40">
         <f>T110+T111-T112</f>
-        <v>11504507501.726437</v>
+        <v>11427373486.322182</v>
       </c>
     </row>
     <row r="114" spans="19:20" ht="20" x14ac:dyDescent="0.25">
@@ -9673,7 +9659,7 @@
       </c>
       <c r="T115" s="60">
         <f>T113/T114</f>
-        <v>62.663013271353819</v>
+        <v>62.242877960891867</v>
       </c>
     </row>
     <row r="116" spans="19:20" ht="20" x14ac:dyDescent="0.25">
@@ -9682,7 +9668,7 @@
       </c>
       <c r="T116" s="59" cm="1">
         <f t="array" ref="T116">_FV(A1,"Price")</f>
-        <v>99.58</v>
+        <v>104.46</v>
       </c>
     </row>
     <row r="117" spans="19:20" ht="20" x14ac:dyDescent="0.25">
@@ -9691,7 +9677,7 @@
       </c>
       <c r="T117" s="56">
         <f>T115/T116-1</f>
-        <v>-0.37072692035193999</v>
+        <v>-0.40414629560700865</v>
       </c>
     </row>
     <row r="118" spans="19:20" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Splunk.xlsx
+++ b/Technology/Software/Splunk.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0BDBA1-60CA-5A46-8DE2-CCB58D76A31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEF8D3D-B3C3-7240-BE35-208358A951AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -510,9 +510,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,18 +547,47 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -854,38 +880,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -893,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -935,10 +935,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -952,83 +948,88 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1081,7 +1082,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>SPLK</a:t>
+              <a:t>Splunk</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1119,10 +1120,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7574043261231263E-2"/>
-          <c:y val="0.12384803921568628"/>
-          <c:w val="0.86317470881863556"/>
-          <c:h val="0.75637197004786172"/>
+          <c:x val="9.4544240400667764E-2"/>
+          <c:y val="0.15109590611518386"/>
+          <c:w val="0.84535559265442417"/>
+          <c:h val="0.70217540048873206"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1185,6 +1186,57 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$E$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$E$3:$R$3</c:f>
@@ -1238,7 +1290,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B2FE-3E48-8B79-8D2F944DE1C7}"/>
+              <c16:uniqueId val="{00000000-8B7E-C740-9181-5EE4AA6A53FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1247,11 +1299,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19:$D$19</c:f>
+              <c:f>'Sheet 1'!$A$28:$D$28</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>- -</c:v>
@@ -1298,60 +1350,111 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$E$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$E$19:$R$19</c:f>
+              <c:f>'Sheet 1'!$E$28:$R$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-6434000</c:v>
+                  <c:v>-7451000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2723000</c:v>
+                  <c:v>-3806000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8694000</c:v>
+                  <c:v>-10992000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-31294000</c:v>
+                  <c:v>-36681000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-72310000</c:v>
+                  <c:v>-79008000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-202346000</c:v>
+                  <c:v>-217116000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-267153000</c:v>
+                  <c:v>-278772000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-314830000</c:v>
+                  <c:v>-355189000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-216805000</c:v>
+                  <c:v>-259103000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-168798000</c:v>
+                  <c:v>-275577000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-167741000</c:v>
+                  <c:v>-336668000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-684306000</c:v>
+                  <c:v>-907980000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1396236000</c:v>
+                  <c:v>-1339097000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-124607000</c:v>
+                  <c:v>-277862000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B2FE-3E48-8B79-8D2F944DE1C7}"/>
+              <c16:uniqueId val="{00000001-8B7E-C740-9181-5EE4AA6A53FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1360,11 +1463,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106:$D$106</c:f>
+              <c:f>'Sheet 1'!$A$107:$D$107</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>- -</c:v>
@@ -1411,9 +1514,60 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$E$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$E$106:$R$106</c:f>
+              <c:f>'Sheet 1'!$E$107:$R$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1464,7 +1618,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B2FE-3E48-8B79-8D2F944DE1C7}"/>
+              <c16:uniqueId val="{00000002-8B7E-C740-9181-5EE4AA6A53FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1478,11 +1632,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1851306591"/>
-        <c:axId val="1850979023"/>
+        <c:axId val="1083417519"/>
+        <c:axId val="1083270623"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1851306591"/>
+        <c:axId val="1083417519"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1510,7 +1664,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1522,7 +1676,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1850979023"/>
+        <c:crossAx val="1083270623"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1530,7 +1684,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1850979023"/>
+        <c:axId val="1083270623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-1500000000"/>
@@ -1579,7 +1733,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1851306591"/>
+        <c:crossAx val="1083417519"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1597,10 +1751,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.27290505325769393"/>
-          <c:y val="0.92034680407596114"/>
-          <c:w val="0.48879877369738101"/>
-          <c:h val="5.0241431218156551E-2"/>
+          <c:x val="0.25604532488530751"/>
+          <c:y val="0.88812719099767701"/>
+          <c:w val="0.50126483772166208"/>
+          <c:h val="6.2830663408453252E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2182,20 +2336,20 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>1571624</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1539874</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B1283F-24C3-3FF7-E9E6-310342B4F839}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB885C7-EF75-68D7-4FE9-5EE9F808B7A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2214,6 +2368,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2937,10 +3145,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q115" sqref="Q115"/>
+      <selection pane="bottomRight" activeCell="W133" sqref="W133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3005,19 +3213,19 @@
       <c r="R1" s="8">
         <v>2023</v>
       </c>
-      <c r="S1" s="29">
+      <c r="S1" s="27">
         <v>2024</v>
       </c>
-      <c r="T1" s="29">
+      <c r="T1" s="27">
         <v>2025</v>
       </c>
-      <c r="U1" s="29">
+      <c r="U1" s="27">
         <v>2026</v>
       </c>
-      <c r="V1" s="29">
+      <c r="V1" s="27">
         <v>2027</v>
       </c>
-      <c r="W1" s="29">
+      <c r="W1" s="27">
         <v>2028</v>
       </c>
     </row>
@@ -3026,61 +3234,61 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -3095,13 +3303,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" s="1">
         <v>35000000</v>
@@ -3145,122 +3353,122 @@
       <c r="R3" s="1">
         <v>3653708000</v>
       </c>
-      <c r="S3" s="30">
-        <v>3875000000</v>
-      </c>
-      <c r="T3" s="30">
-        <v>4376000000</v>
-      </c>
-      <c r="U3" s="30">
-        <v>5117000000</v>
-      </c>
-      <c r="V3" s="30">
-        <v>6662000000</v>
-      </c>
-      <c r="W3" s="30">
-        <v>7232000000</v>
+      <c r="S3" s="28">
+        <v>3901000000</v>
+      </c>
+      <c r="T3" s="28">
+        <v>4404000000</v>
+      </c>
+      <c r="U3" s="28">
+        <v>5079000000</v>
+      </c>
+      <c r="V3" s="28">
+        <v>6282000000</v>
+      </c>
+      <c r="W3" s="28">
+        <v>7366000000</v>
       </c>
       <c r="X3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="Y3" s="19" t="s">
+      <c r="Z3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="Z3" s="19" t="s">
+      <c r="AA3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="AA3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15" t="e">
+      <c r="C4" s="67" t="e">
         <f>(C3/B3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D4" s="15" t="e">
+      <c r="D4" s="67" t="e">
         <f>(D3/C3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E4" s="15" t="e">
+      <c r="E4" s="67" t="e">
         <f>(E3/D3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="67">
         <f t="shared" ref="F4:W4" si="0">(F3/E3)-1</f>
         <v>0.89271428571428579</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="67">
         <f t="shared" si="0"/>
         <v>0.82594912823609334</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="67">
         <f t="shared" si="0"/>
         <v>0.64470899470899479</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="67">
         <f t="shared" si="0"/>
         <v>0.52114665433488816</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="67">
         <f t="shared" si="0"/>
         <v>0.48989006123130108</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="67">
         <f t="shared" si="0"/>
         <v>0.48252841696700854</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="67">
         <f t="shared" si="0"/>
         <v>0.42116286549926318</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="67">
         <f t="shared" si="0"/>
         <v>0.33773494533951598</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="67">
         <f t="shared" si="0"/>
         <v>0.41881257928151672</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="67">
         <f t="shared" si="0"/>
         <v>0.30832663157719598</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="67">
         <f t="shared" si="0"/>
         <v>-5.4915245327746609E-2</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="67">
         <f t="shared" si="0"/>
         <v>0.19928321039210362</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="67">
         <f t="shared" si="0"/>
         <v>0.36655466057066266</v>
       </c>
       <c r="S4" s="16">
         <f t="shared" si="0"/>
-        <v>6.056641636386928E-2</v>
+        <v>6.7682474899471989E-2</v>
       </c>
       <c r="T4" s="16">
         <f t="shared" si="0"/>
-        <v>0.12929032258064521</v>
+        <v>0.12894129710330682</v>
       </c>
       <c r="U4" s="16">
         <f t="shared" si="0"/>
-        <v>0.1693327239488116</v>
+        <v>0.15326975476839233</v>
       </c>
       <c r="V4" s="16">
         <f t="shared" si="0"/>
-        <v>0.30193472737932381</v>
+        <v>0.23685764914353213</v>
       </c>
       <c r="W4" s="16">
         <f t="shared" si="0"/>
-        <v>8.5559891924346987E-2</v>
+        <v>0.17255651066539324</v>
       </c>
       <c r="X4" s="17">
         <f>(R4+Q4+P4)/3</f>
@@ -3275,7 +3483,7 @@
         <v>0.45975602129937226</v>
       </c>
       <c r="AA4" s="17">
-        <f>(R105+Q105+P105)/3</f>
+        <f>(R106+Q106+P106)/3</f>
         <v>0.23442820282593191</v>
       </c>
       <c r="AH4" s="16"/>
@@ -3293,13 +3501,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1">
         <v>3290000</v>
@@ -3349,13 +3557,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="10">
         <v>31710000</v>
@@ -3400,16 +3608,16 @@
         <v>2837713000</v>
       </c>
       <c r="X6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="Y6" s="19" t="s">
+      <c r="Z6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="Z6" s="19" t="s">
+      <c r="AA6" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="AA6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -3417,13 +3625,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2">
         <v>0.90600000000000003</v>
@@ -3480,7 +3688,7 @@
         <v>-7.5999999999999998E-2</v>
       </c>
       <c r="AA7" s="20">
-        <f>R106/R3</f>
+        <f>R107/R3</f>
         <v>0.11692997907878791</v>
       </c>
     </row>
@@ -3489,13 +3697,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1">
         <v>8479000</v>
@@ -3542,7 +3750,7 @@
     </row>
     <row r="9" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -3617,16 +3825,16 @@
       <c r="U9" s="15"/>
       <c r="V9" s="15"/>
       <c r="X9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="Y9" s="19" t="s">
+      <c r="Z9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="Z9" s="19" t="s">
+      <c r="AA9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AA9" s="19" t="s">
-        <v>99</v>
       </c>
       <c r="AH9" s="15"/>
       <c r="AI9" s="15"/>
@@ -3639,13 +3847,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1">
         <v>6462000</v>
@@ -3711,13 +3919,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1">
         <v>24072000</v>
@@ -3767,13 +3975,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1">
         <v>30534000</v>
@@ -3818,21 +4026,21 @@
         <v>2076049000</v>
       </c>
       <c r="X12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="Y12" s="19" t="s">
+      <c r="Z12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="Z12" s="19" t="s">
+      <c r="AA12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="AA12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15" t="e">
         <f>B12/B3</f>
@@ -3933,55 +4141,55 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -3989,13 +4197,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="1">
         <v>39013000</v>
@@ -4040,16 +4248,16 @@
         <v>3073219000</v>
       </c>
       <c r="X15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="Y15" s="19" t="s">
+      <c r="Z15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="Z15" s="19" t="s">
+      <c r="AA15" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="AA15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -4057,13 +4265,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="1">
         <v>42303000</v>
@@ -4107,20 +4315,20 @@
       <c r="R16" s="1">
         <v>3889214000</v>
       </c>
-      <c r="X16" s="31">
+      <c r="X16" s="29">
         <f>(R35+Q35+P35+O35+N35)/5</f>
         <v>2.6133504699581783E-2</v>
       </c>
-      <c r="Y16" s="32">
+      <c r="Y16" s="34">
         <f>Z101/R3</f>
         <v>4.7345261307143316</v>
       </c>
-      <c r="Z16" s="32">
+      <c r="Z16" s="34">
         <f>Z101/R28</f>
         <v>-62.255997581533279</v>
       </c>
-      <c r="AA16" s="33">
-        <f>Z101/R106</f>
+      <c r="AA16" s="35">
+        <f>Z101/R107</f>
         <v>40.490267491831062</v>
       </c>
     </row>
@@ -4129,40 +4337,40 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1">
         <v>41963000</v>
@@ -4185,13 +4393,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E18" s="1">
         <v>938000</v>
@@ -4236,7 +4444,16 @@
         <v>94818000</v>
       </c>
       <c r="X18" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="Y18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z18" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA18" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4244,13 +4461,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19" s="10">
         <v>-6434000</v>
@@ -4294,14 +4511,41 @@
       <c r="R19" s="10">
         <v>-124607000</v>
       </c>
-      <c r="X19" s="34">
+      <c r="S19" s="38">
+        <v>801000000</v>
+      </c>
+      <c r="T19" s="38">
+        <v>937700000</v>
+      </c>
+      <c r="U19" s="38">
+        <v>1127000000</v>
+      </c>
+      <c r="V19" s="38">
+        <v>1062000000</v>
+      </c>
+      <c r="W19" s="38">
+        <v>1542000000</v>
+      </c>
+      <c r="X19" s="30">
         <f>R40-R56-R61</f>
         <v>-2070279000</v>
       </c>
+      <c r="Y19" s="34">
+        <f>Z101/S3</f>
+        <v>4.4343952832607023</v>
+      </c>
+      <c r="Z19" s="34">
+        <f>Z101/S28</f>
+        <v>28.07298928919182</v>
+      </c>
+      <c r="AA19" s="35">
+        <f>Z101/S106</f>
+        <v>31.275675284758634</v>
+      </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15" t="e">
@@ -4365,18 +4609,30 @@
         <v>1.0403679055860975</v>
       </c>
       <c r="R20" s="15">
-        <f t="shared" ref="R20" si="5">(R19/Q19)-1</f>
+        <f t="shared" ref="R20:W20" si="5">(R19/Q19)-1</f>
         <v>-0.91075505860040851</v>
       </c>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
+      <c r="S20" s="16">
+        <f t="shared" si="5"/>
+        <v>-7.4282102931617002</v>
+      </c>
+      <c r="T20" s="16">
+        <f t="shared" si="5"/>
+        <v>0.17066167290886392</v>
+      </c>
+      <c r="U20" s="16">
+        <f t="shared" si="5"/>
+        <v>0.20187693292097686</v>
+      </c>
+      <c r="V20" s="16">
+        <f t="shared" si="5"/>
+        <v>-5.7675244010647719E-2</v>
+      </c>
+      <c r="W20" s="16">
+        <f t="shared" si="5"/>
+        <v>0.45197740112994356</v>
+      </c>
       <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
       <c r="AH20" s="15"/>
       <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
@@ -4385,18 +4641,18 @@
       <c r="AT20" s="15"/>
       <c r="AU20" s="15"/>
     </row>
-    <row r="21" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E21" s="2">
         <v>-0.18379999999999999</v>
@@ -4439,6 +4695,32 @@
       </c>
       <c r="R21" s="2">
         <v>-3.4099999999999998E-2</v>
+      </c>
+      <c r="S21" s="39">
+        <f>S19/S3</f>
+        <v>0.20533196616252242</v>
+      </c>
+      <c r="T21" s="39">
+        <f t="shared" ref="T21:W21" si="6">T19/T3</f>
+        <v>0.21292007266121707</v>
+      </c>
+      <c r="U21" s="39">
+        <f t="shared" si="6"/>
+        <v>0.22189407363654262</v>
+      </c>
+      <c r="V21" s="39">
+        <f t="shared" si="6"/>
+        <v>0.16905444126074498</v>
+      </c>
+      <c r="W21" s="39">
+        <f t="shared" si="6"/>
+        <v>0.20934021178387185</v>
+      </c>
+      <c r="Z21" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA21" s="19" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4446,13 +4728,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" s="10">
         <v>-7303000</v>
@@ -4495,6 +4777,14 @@
       </c>
       <c r="R22" s="10">
         <v>-235506000</v>
+      </c>
+      <c r="Z22" s="36">
+        <f>(-1*R98)/Z101</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="37">
+        <f>R107/Z101</f>
+        <v>2.4697293002614782E-2</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4502,13 +4792,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" s="2">
         <v>-0.2087</v>
@@ -4558,13 +4848,13 @@
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" s="1">
         <v>-69000</v>
@@ -4614,13 +4904,13 @@
         <v>19</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="10">
         <v>-7372000</v>
@@ -4670,13 +4960,13 @@
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="2">
         <v>-0.21060000000000001</v>
@@ -4726,13 +5016,13 @@
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="1">
         <v>79000</v>
@@ -4782,13 +5072,13 @@
         <v>22</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E28" s="11">
         <v>-7451000</v>
@@ -4832,10 +5122,25 @@
       <c r="R28" s="11">
         <v>-277862000</v>
       </c>
+      <c r="S28" s="40">
+        <v>616200000</v>
+      </c>
+      <c r="T28" s="40">
+        <v>721500000</v>
+      </c>
+      <c r="U28" s="40">
+        <v>956000000</v>
+      </c>
+      <c r="V28" s="40">
+        <v>1247000000</v>
+      </c>
+      <c r="W28" s="40">
+        <v>1703000000</v>
+      </c>
     </row>
     <row r="29" spans="1:47" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15" t="e">
@@ -4851,62 +5156,77 @@
         <v>#VALUE!</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:P29" si="6">(F28/E28)-1</f>
+        <f t="shared" ref="F29:P29" si="7">(F28/E28)-1</f>
         <v>-0.48919608106294454</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.8880714661061484</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.3370633187772927</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1539216488100106</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.748025516403402</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.28397722876250486</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27412006944743372</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.2705207650011684</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.3580892540804346E-2</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.22168395765974669</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6969596160015206</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" ref="Q29" si="7">(Q28/P28)-1</f>
+        <f t="shared" ref="Q29" si="8">(Q28/P28)-1</f>
         <v>0.47480891649595813</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" ref="R29" si="8">(R28/Q28)-1</f>
+        <f t="shared" ref="R29:W29" si="9">(R28/Q28)-1</f>
         <v>-0.79250046859936207</v>
       </c>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
+      <c r="S29" s="16">
+        <f t="shared" si="9"/>
+        <v>-3.2176476092448771</v>
+      </c>
+      <c r="T29" s="16">
+        <f t="shared" si="9"/>
+        <v>0.17088607594936711</v>
+      </c>
+      <c r="U29" s="16">
+        <f t="shared" si="9"/>
+        <v>0.32501732501732494</v>
+      </c>
+      <c r="V29" s="16">
+        <f t="shared" si="9"/>
+        <v>0.30439330543933063</v>
+      </c>
+      <c r="W29" s="16">
+        <f t="shared" si="9"/>
+        <v>0.36567762630312761</v>
+      </c>
       <c r="X29" s="15"/>
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
@@ -4924,13 +5244,13 @@
         <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E30" s="2">
         <v>-0.21290000000000001</v>
@@ -4973,6 +5293,26 @@
       </c>
       <c r="R30" s="2">
         <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="S30" s="41">
+        <f>S28/S3</f>
+        <v>0.15795949756472699</v>
+      </c>
+      <c r="T30" s="41">
+        <f t="shared" ref="T30:W30" si="10">T28/T3</f>
+        <v>0.16382833787465939</v>
+      </c>
+      <c r="U30" s="41">
+        <f t="shared" si="10"/>
+        <v>0.18822602874581609</v>
+      </c>
+      <c r="V30" s="41">
+        <f t="shared" si="10"/>
+        <v>0.1985036612543776</v>
+      </c>
+      <c r="W30" s="41">
+        <f t="shared" si="10"/>
+        <v>0.23119739342926962</v>
       </c>
     </row>
     <row r="31" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4980,13 +5320,13 @@
         <v>24</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E31" s="12">
         <v>-0.36</v>
@@ -5029,6 +5369,21 @@
       </c>
       <c r="R31" s="12">
         <v>-1.71</v>
+      </c>
+      <c r="S31" s="42">
+        <v>3.72</v>
+      </c>
+      <c r="T31" s="42">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="U31" s="42">
+        <v>5.78</v>
+      </c>
+      <c r="V31" s="42">
+        <v>7.53</v>
+      </c>
+      <c r="W31" s="42">
+        <v>10.29</v>
       </c>
     </row>
     <row r="32" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -5036,13 +5391,13 @@
         <v>25</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E32" s="12">
         <v>-0.36</v>
@@ -5092,13 +5447,13 @@
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E33" s="1">
         <v>20646000</v>
@@ -5148,13 +5503,13 @@
         <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E34" s="1">
         <v>20646000</v>
@@ -5201,7 +5556,7 @@
     </row>
     <row r="35" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22" t="e">
@@ -5209,63 +5564,63 @@
         <v>#VALUE!</v>
       </c>
       <c r="D35" s="22" t="e">
-        <f t="shared" ref="D35:P35" si="9">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:P35" si="11">(D34-C34)/C34</f>
         <v>#VALUE!</v>
       </c>
       <c r="E35" s="22" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.8867577254674028</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.30931136754479976</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.1399868655239038</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.8200793153830095E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.6522493806510657E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6.6650160555597041E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.0106238155443042E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.2839396871804374E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.1300107272834967E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" ref="Q35" si="10">(Q34-P34)/P34</f>
+        <f t="shared" ref="Q35" si="12">(Q34-P34)/P34</f>
         <v>1.1793870192307692E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" ref="R35" si="11">(R34-Q34)/Q34</f>
+        <f t="shared" ref="R35" si="13">(R34-Q34)/Q34</f>
         <v>4.627911005518846E-3</v>
       </c>
       <c r="S35" s="22"/>
@@ -5288,55 +5643,55 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:38" ht="21" x14ac:dyDescent="0.25">
@@ -5344,55 +5699,55 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -5400,13 +5755,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1">
         <v>11805000</v>
@@ -5456,28 +5811,28 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1">
         <v>462849000</v>
@@ -5512,13 +5867,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1">
         <v>11805000</v>
@@ -5568,13 +5923,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1">
         <v>6590000</v>
@@ -5624,55 +5979,55 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -5680,13 +6035,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1">
         <v>920000</v>
@@ -5736,13 +6091,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10">
         <v>19315000</v>
@@ -5792,13 +6147,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1">
         <v>1762000</v>
@@ -5848,25 +6203,25 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1">
         <v>19070000</v>
@@ -5904,25 +6259,25 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1">
         <v>12294000</v>
@@ -5960,25 +6315,25 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1">
         <v>31364000</v>
@@ -6016,28 +6371,28 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1">
         <v>165082000</v>
@@ -6072,55 +6427,55 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6128,13 +6483,13 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1">
         <v>838000</v>
@@ -6184,13 +6539,13 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1">
         <v>2600000</v>
@@ -6240,55 +6595,55 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6296,13 +6651,13 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="11">
         <v>21915000</v>
@@ -6352,13 +6707,13 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1">
         <v>837000</v>
@@ -6408,52 +6763,52 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1">
         <v>982000</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R56" s="1">
         <v>775656000</v>
@@ -6464,55 +6819,55 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6520,13 +6875,13 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1">
         <v>10640000</v>
@@ -6576,13 +6931,13 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1">
         <v>3900000</v>
@@ -6632,13 +6987,13 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10">
         <v>15377000</v>
@@ -6688,40 +7043,40 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1">
         <v>1307000</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N61" s="1">
         <v>1634474000</v>
@@ -6744,13 +7099,13 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1">
         <v>677000</v>
@@ -6800,55 +7155,55 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6856,13 +7211,13 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1">
         <v>41107000</v>
@@ -6912,13 +7267,13 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1">
         <v>41784000</v>
@@ -6968,55 +7323,55 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -7024,13 +7379,13 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="10">
         <v>57161000</v>
@@ -7080,13 +7435,13 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1">
         <v>17000</v>
@@ -7136,13 +7491,13 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1">
         <v>-39220000</v>
@@ -7192,13 +7547,13 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1">
         <v>-2603000</v>
@@ -7248,13 +7603,13 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1">
         <v>6560000</v>
@@ -7304,13 +7659,13 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="10">
         <v>-35246000</v>
@@ -7360,13 +7715,13 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="11">
         <v>21915000</v>
@@ -7416,55 +7771,55 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:38" ht="21" x14ac:dyDescent="0.25">
@@ -7472,55 +7827,55 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -7528,13 +7883,13 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1">
         <v>-7451000</v>
@@ -7584,13 +7939,13 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="1">
         <v>938000</v>
@@ -7640,25 +7995,25 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="1">
         <v>-1374000</v>
@@ -7696,13 +8051,13 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1">
         <v>1300000</v>
@@ -7749,74 +8104,74 @@
     </row>
     <row r="80" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:R80" si="12">B79/B3</f>
+        <f t="shared" ref="B80:R80" si="14">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.7142857142857144E-2</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.3926334062948147E-2</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.1084656084656083E-2</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.7917001769342121E-2</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.22922249795950739</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.47502966454116996</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.43722575867511426</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.39795674531951514</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28207930827171801</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.24510679363952501</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.23121708777638636</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.27750029716715596</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.29727669594982764</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.21598277694878737</v>
       </c>
       <c r="S80" s="15"/>
@@ -7839,13 +8194,13 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="1">
         <v>5709000</v>
@@ -7895,13 +8250,13 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1">
         <v>-2160000</v>
@@ -7951,73 +8306,73 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y83" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z83" s="64"/>
+        <v>91</v>
+      </c>
+      <c r="Y83" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z83" s="70"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1">
         <v>462000</v>
@@ -8061,23 +8416,23 @@
       <c r="R84" s="1">
         <v>-43907000</v>
       </c>
-      <c r="Y84" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z84" s="66"/>
+      <c r="Y84" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z84" s="71"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1">
         <v>6049000</v>
@@ -8119,12 +8474,12 @@
         <v>201735000</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z85" s="24">
+        <v>91</v>
+      </c>
+      <c r="Y85" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z85" s="44">
         <f>R17</f>
         <v>46026000</v>
       </c>
@@ -8134,13 +8489,13 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1">
         <v>401000</v>
@@ -8182,12 +8537,12 @@
         <v>344538000</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z86" s="24">
+        <v>91</v>
+      </c>
+      <c r="Y86" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z86" s="44">
         <f>R56</f>
         <v>775656000</v>
       </c>
@@ -8197,13 +8552,13 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="10">
         <v>897000</v>
@@ -8247,10 +8602,10 @@
       <c r="R87" s="10">
         <v>449630000</v>
       </c>
-      <c r="Y87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z87" s="24">
+      <c r="Y87" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z87" s="44">
         <f>R61</f>
         <v>3301557000</v>
       </c>
@@ -8260,13 +8615,13 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1">
         <v>-359000</v>
@@ -8310,90 +8665,90 @@
       <c r="R88" s="1">
         <v>-13620000</v>
       </c>
-      <c r="Y88" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z88" s="36">
+      <c r="Y88" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z88" s="46">
         <f>Z85/(Z86+Z87)</f>
         <v>1.1288593458325577E-2</v>
       </c>
     </row>
     <row r="89" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:R89" si="15">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" s="15" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="15"/>
+        <v>1.0257142857142857E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="15"/>
+        <v>2.2205449467884369E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="15"/>
+        <v>6.7625661375661381E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="15"/>
+        <v>4.5625904777223739E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="15"/>
+        <v>3.0757741480323703E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="15"/>
+        <v>3.0939839201552535E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="15"/>
+        <v>7.679430311099808E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="15"/>
+        <v>4.7738050749772359E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="15"/>
+        <v>1.613408373387221E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="15"/>
+        <v>1.284518666008508E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="15"/>
+        <v>4.2866541807585319E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="15"/>
+        <v>1.6644500613397867E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="15"/>
+        <v>-2.936045815779395E-4</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="15"/>
+        <v>3.727719894419587E-3</v>
+      </c>
+      <c r="Y89" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:R89" si="13">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="13"/>
-        <v>1.0257142857142857E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="13"/>
-        <v>2.2205449467884369E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="13"/>
-        <v>6.7625661375661381E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="13"/>
-        <v>4.5625904777223739E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="13"/>
-        <v>3.0757741480323703E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="13"/>
-        <v>3.0939839201552535E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="13"/>
-        <v>7.679430311099808E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="13"/>
-        <v>4.7738050749772359E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="13"/>
-        <v>1.613408373387221E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="13"/>
-        <v>1.284518666008508E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="13"/>
-        <v>4.2866541807585319E-2</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="13"/>
-        <v>1.6644500613397867E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="13"/>
-        <v>-2.936045815779395E-4</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="13"/>
-        <v>3.727719894419587E-3</v>
-      </c>
-      <c r="Y89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z89" s="24">
+      <c r="Z89" s="44">
         <f>R27</f>
         <v>12411000</v>
       </c>
@@ -8403,10 +8758,10 @@
       <c r="AJ89" s="15"/>
       <c r="AK89" s="15"/>
       <c r="AL89" s="15"/>
-      <c r="AS89" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT89" s="26">
+      <c r="AS89" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT89" s="24">
         <f>AL27</f>
         <v>0</v>
       </c>
@@ -8416,25 +8771,25 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1">
         <v>-29738000</v>
@@ -8446,7 +8801,7 @@
         <v>-142693000</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1">
         <v>-59350000</v>
@@ -8466,10 +8821,10 @@
       <c r="R90" s="1">
         <v>-21950000</v>
       </c>
-      <c r="Y90" s="23" t="s">
+      <c r="Y90" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="Z90" s="24">
+      <c r="Z90" s="44">
         <f>R25</f>
         <v>-265451000</v>
       </c>
@@ -8479,28 +8834,28 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J91" s="1">
         <v>-820710000</v>
@@ -8529,10 +8884,10 @@
       <c r="R91" s="1">
         <v>-1543292000</v>
       </c>
-      <c r="Y91" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z91" s="36">
+      <c r="Y91" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z91" s="46">
         <f>Z89/Z90</f>
         <v>-4.67543915826273E-2</v>
       </c>
@@ -8542,28 +8897,28 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1">
         <v>4877000</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1">
         <v>192000000</v>
@@ -8592,10 +8947,10 @@
       <c r="R92" s="1">
         <v>515950000</v>
       </c>
-      <c r="Y92" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z92" s="38">
+      <c r="Y92" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z92" s="46">
         <f>Z88*(1-Z91)</f>
         <v>1.1816384777293217E-2</v>
       </c>
@@ -8605,13 +8960,13 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1">
         <v>201000</v>
@@ -8626,10 +8981,10 @@
         <v>514000</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K93" s="1">
         <v>-1500000</v>
@@ -8655,23 +9010,23 @@
       <c r="R93" s="1">
         <v>-7248000</v>
       </c>
-      <c r="Y93" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z93" s="66"/>
+      <c r="Y93" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z93" s="71"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="10">
         <v>4719000</v>
@@ -8715,11 +9070,12 @@
       <c r="R94" s="10">
         <v>-1070160000</v>
       </c>
-      <c r="Y94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z94" s="39">
-        <v>4.095E-2</v>
+      <c r="Y94" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z94" s="47">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8727,19 +9083,19 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1">
         <v>-884000</v>
@@ -8748,16 +9104,16 @@
         <v>-2289000</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1">
         <v>-523000</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1">
         <v>-1808000</v>
@@ -8766,7 +9122,7 @@
         <v>-2522000</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1">
         <v>-668929000</v>
@@ -8775,12 +9131,12 @@
         <v>-200957000</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y95" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z95" s="58" cm="1">
+        <v>91</v>
+      </c>
+      <c r="Y95" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z95" s="48" cm="1">
         <f t="array" ref="Z95">_FV(A1,"Beta")</f>
         <v>1.2753000000000001</v>
       </c>
@@ -8790,13 +9146,13 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1">
         <v>1492000</v>
@@ -8814,36 +9170,36 @@
         <v>539339000</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z96" s="39">
+        <v>91</v>
+      </c>
+      <c r="Y96" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z96" s="47">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -8852,62 +9208,62 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q97" s="1">
         <v>-1000000000</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y97" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z97" s="38">
+        <v>91</v>
+      </c>
+      <c r="Y97" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z97" s="46">
         <f>(Z94)+((Z95)*(Z96-Z94))</f>
-        <v>9.5851665000000003E-2</v>
+        <v>9.6355464000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -8915,73 +9271,73 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y98" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z98" s="66"/>
+        <v>91</v>
+      </c>
+      <c r="R98" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z98" s="71"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1">
         <v>-39000</v>
@@ -9025,10 +9381,10 @@
       <c r="R99" s="1">
         <v>-117574000</v>
       </c>
-      <c r="Y99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z99" s="24">
+      <c r="Y99" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z99" s="44">
         <f>Z86+Z87</f>
         <v>4077213000</v>
       </c>
@@ -9038,13 +9394,13 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100" s="10">
         <v>1453000</v>
@@ -9088,10 +9444,10 @@
       <c r="R100" s="10">
         <v>-117574000</v>
       </c>
-      <c r="Y100" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z100" s="36">
+      <c r="Y100" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z100" s="46">
         <f>Z99/Z103</f>
         <v>0.19073976637774634</v>
       </c>
@@ -9101,22 +9457,22 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1">
         <v>20000</v>
@@ -9146,15 +9502,15 @@
         <v>3201000</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y101" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z101" s="40" cm="1">
+        <v>91</v>
+      </c>
+      <c r="Y101" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z101" s="49" cm="1">
         <f t="array" ref="Z101">_FV(A1,"Market cap",TRUE)</f>
         <v>17298576000</v>
       </c>
@@ -9164,13 +9520,13 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="10">
         <v>7069000</v>
@@ -9214,10 +9570,10 @@
       <c r="R102" s="10">
         <v>-738104000</v>
       </c>
-      <c r="Y102" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z102" s="36">
+      <c r="Y102" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z102" s="46">
         <f>Z101/Z103</f>
         <v>0.80926023362225363</v>
       </c>
@@ -9227,13 +9583,13 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1">
         <v>4736000</v>
@@ -9277,10 +9633,10 @@
       <c r="R103" s="1">
         <v>1428691000</v>
       </c>
-      <c r="Y103" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z103" s="41">
+      <c r="Y103" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z103" s="50">
         <f>Z99+Z101</f>
         <v>21375789000</v>
       </c>
@@ -9290,13 +9646,13 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11">
         <v>11805000</v>
@@ -9340,92 +9696,112 @@
       <c r="R104" s="11">
         <v>690587000</v>
       </c>
-      <c r="Y104" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z104" s="66"/>
+      <c r="Y104" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z104" s="71"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:Q105" si="16">(B22*(1-0.2))+B77+B88+B81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C105" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D105" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="16"/>
+        <v>445600</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="16"/>
+        <v>5683800</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="16"/>
+        <v>4444200</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="16"/>
+        <v>23520600</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="16"/>
+        <v>11131400</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="16"/>
+        <v>-79282000</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="16"/>
+        <v>-128851400</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="16"/>
+        <v>-149888800</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="16"/>
+        <v>-50641000</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="16"/>
+        <v>-191076400</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="16"/>
+        <v>-998030600</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="16"/>
+        <v>-801461800</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="16"/>
+        <v>-588310200</v>
+      </c>
+      <c r="R105" s="1">
+        <f>(R22*(1-0.2))+R77+R88+R81</f>
+        <v>-260975800</v>
+      </c>
+      <c r="S105" s="31">
+        <f>R105*(1+$Z$106)</f>
+        <v>-300607986.19027799</v>
+      </c>
+      <c r="T105" s="31">
+        <f t="shared" ref="T105:W105" si="17">S105*(1+$Z$106)</f>
+        <v>-346258777.1026063</v>
+      </c>
+      <c r="U105" s="31">
+        <f t="shared" si="17"/>
+        <v>-398842167.30257297</v>
+      </c>
+      <c r="V105" s="31">
+        <f t="shared" si="17"/>
+        <v>-459410951.97559464</v>
+      </c>
+      <c r="W105" s="31">
+        <f t="shared" si="17"/>
+        <v>-529177805.40242434</v>
+      </c>
+      <c r="X105" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y105" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E105" s="15" t="e">
-        <f>(E106/D106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>11.840148698884759</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-6.7458019687319015E-2</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:P105" si="14">(H106/G106)-1</f>
-        <v>4.8321949705060536</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="14"/>
-        <v>0.71781427164568412</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="14"/>
-        <v>0.39494886891850012</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="14"/>
-        <v>0.15839164722870147</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="14"/>
-        <v>0.50047943235209513</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="14"/>
-        <v>0.54903664888008441</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="14"/>
-        <v>0.12744584387028102</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="14"/>
-        <v>-2.4319524029067598</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="14"/>
-        <v>-0.38015914387342087</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" ref="Q105" si="15">(Q106/P106)-1</f>
-        <v>-1.49252383838134</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" ref="R105" si="16">(R106/Q106)-1</f>
-        <v>2.5759675907325565</v>
-      </c>
-      <c r="S105" s="15"/>
-      <c r="T105" s="15"/>
-      <c r="U105" s="15"/>
-      <c r="V105" s="15"/>
-      <c r="W105" s="15"/>
-      <c r="X105" s="15"/>
-      <c r="Y105" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z105" s="28">
+      <c r="Z105" s="52">
         <f>(Z100*Z92)+(Z102*Z97)</f>
-        <v>7.9822795282832454E-2</v>
+        <v>8.0230499779271117E-2</v>
       </c>
       <c r="AA105" s="15"/>
       <c r="AH105" s="15"/>
@@ -9439,252 +9815,297 @@
       <c r="AP105" s="15"/>
       <c r="AQ105" s="15"/>
       <c r="AR105" s="15"/>
-      <c r="AS105" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="AT105" s="28">
+      <c r="AS105" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT105" s="26">
         <f>(AT100*AT92)+(AT102*AT97)</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="1">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:R106" si="18">(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="18"/>
+        <v>11.840148698884759</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="18"/>
+        <v>-6.7458019687319015E-2</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="18"/>
+        <v>4.8321949705060536</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="18"/>
+        <v>0.71781427164568412</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="18"/>
+        <v>0.39494886891850012</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="18"/>
+        <v>0.15839164722870147</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="18"/>
+        <v>0.50047943235209513</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="18"/>
+        <v>0.54903664888008441</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="18"/>
+        <v>0.12744584387028102</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="18"/>
+        <v>-2.4319524029067598</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="18"/>
+        <v>-0.38015914387342087</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="18"/>
+        <v>-1.49252383838134</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="18"/>
+        <v>2.5759675907325565</v>
+      </c>
+      <c r="S106" s="65">
+        <v>553100000</v>
+      </c>
+      <c r="T106" s="65">
+        <v>672200000</v>
+      </c>
+      <c r="U106" s="65">
+        <v>783100000</v>
+      </c>
+      <c r="V106" s="65">
+        <v>1118000000</v>
+      </c>
+      <c r="W106" s="65">
+        <v>1141000000</v>
+      </c>
+      <c r="X106" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y106" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z106" s="54">
+        <f>(SUM(S4:W4)/5)</f>
+        <v>0.15186153731601931</v>
+      </c>
+    </row>
+    <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1">
         <v>538000</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F107" s="1">
         <v>6908000</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G107" s="1">
         <v>6442000</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H107" s="1">
         <v>37571000</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I107" s="1">
         <v>64540000</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J107" s="1">
         <v>90030000</v>
       </c>
-      <c r="K106" s="1">
+      <c r="K107" s="1">
         <v>104290000</v>
       </c>
-      <c r="L106" s="1">
+      <c r="L107" s="1">
         <v>156485000</v>
       </c>
-      <c r="M106" s="1">
+      <c r="M107" s="1">
         <v>242401000</v>
       </c>
-      <c r="N106" s="1">
+      <c r="N107" s="1">
         <v>273294000</v>
       </c>
-      <c r="O106" s="1">
+      <c r="O107" s="1">
         <v>-391344000</v>
       </c>
-      <c r="P106" s="1">
+      <c r="P107" s="1">
         <v>-242571000</v>
       </c>
-      <c r="Q106" s="1">
+      <c r="Q107" s="1">
         <v>119472000</v>
       </c>
-      <c r="R106" s="1">
+      <c r="R107" s="1">
         <v>427228000</v>
       </c>
-      <c r="S106" s="42">
-        <f>R106*(1+$Z$106)</f>
-        <v>491028869.41377169</v>
-      </c>
-      <c r="T106" s="42">
-        <f t="shared" ref="T106:W106" si="17">S106*(1+$Z$106)</f>
-        <v>564357557.55186188</v>
-      </c>
-      <c r="U106" s="42">
-        <f t="shared" si="17"/>
-        <v>648636918.53017199</v>
-      </c>
-      <c r="V106" s="42">
-        <f t="shared" si="17"/>
-        <v>745502290.96852994</v>
-      </c>
-      <c r="W106" s="42">
-        <f t="shared" si="17"/>
-        <v>856833229.750049</v>
-      </c>
-      <c r="X106" s="43" t="s">
+      <c r="S107" s="32"/>
+      <c r="T107" s="32"/>
+      <c r="U107" s="32"/>
+      <c r="V107" s="32"/>
+      <c r="W107" s="66">
+        <f>W106*(1+Z107)/(Z108-Z107)</f>
+        <v>21175347039.661251</v>
+      </c>
+      <c r="X107" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="Y106" s="44" t="s">
+      <c r="Y107" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="Z106" s="45">
-        <f>(SUM(S4:W4)/5)</f>
-        <v>0.14933681643939939</v>
-      </c>
-    </row>
-    <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="43"/>
-      <c r="T107" s="43"/>
-      <c r="U107" s="43"/>
-      <c r="V107" s="43"/>
-      <c r="W107" s="46">
-        <f>W106*(1+Z107)/(Z108-Z107)</f>
-        <v>16019870128.162218</v>
-      </c>
-      <c r="X107" s="47" t="s">
+      <c r="Z107" s="56">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+      <c r="S108" s="66">
+        <f t="shared" ref="S108:V108" si="19">S107+S106</f>
+        <v>553100000</v>
+      </c>
+      <c r="T108" s="66">
+        <f t="shared" si="19"/>
+        <v>672200000</v>
+      </c>
+      <c r="U108" s="66">
+        <f t="shared" si="19"/>
+        <v>783100000</v>
+      </c>
+      <c r="V108" s="66">
+        <f t="shared" si="19"/>
+        <v>1118000000</v>
+      </c>
+      <c r="W108" s="66">
+        <f>W107+W106</f>
+        <v>22316347039.661251</v>
+      </c>
+      <c r="X108" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y108" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="Y107" s="48" t="s">
+      <c r="Z108" s="54">
+        <f>Z105</f>
+        <v>8.0230499779271117E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+      <c r="S109" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="Z107" s="49">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="S108" s="46">
-        <f t="shared" ref="S108:U108" si="18">S107+S106</f>
-        <v>491028869.41377169</v>
-      </c>
-      <c r="T108" s="46">
-        <f t="shared" si="18"/>
-        <v>564357557.55186188</v>
-      </c>
-      <c r="U108" s="46">
-        <f t="shared" si="18"/>
-        <v>648636918.53017199</v>
-      </c>
-      <c r="V108" s="46">
-        <f>V107+V106</f>
-        <v>745502290.96852994</v>
-      </c>
-      <c r="W108" s="46">
-        <f>W107+W106</f>
-        <v>16876703357.912268</v>
-      </c>
-      <c r="X108" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y108" s="50" t="s">
+      <c r="T109" s="68"/>
+    </row>
+    <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+      <c r="S110" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="Z108" s="51">
-        <f>Z105</f>
-        <v>7.9822795282832454E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="S109" s="61" t="s">
+      <c r="T110" s="49">
+        <f>NPV(Z108,S108,T108,U108,V108,W108)</f>
+        <v>17702325464.228428</v>
+      </c>
+    </row>
+    <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+      <c r="S111" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="T109" s="62"/>
-    </row>
-    <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="S110" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="T110" s="40">
-        <f>NPV(Z108,S108,T108,U108,V108,W108)</f>
-        <v>13497652486.322182</v>
-      </c>
-    </row>
-    <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="S111" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="T111" s="40">
+      <c r="T111" s="49">
         <f>R40</f>
         <v>2006934000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="S112" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="T112" s="40">
+      <c r="S112" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="T112" s="49">
         <f>Z99</f>
         <v>4077213000</v>
       </c>
     </row>
     <row r="113" spans="19:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="S113" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="T113" s="40">
+      <c r="S113" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="T113" s="49">
         <f>T110+T111-T112</f>
-        <v>11427373486.322182</v>
+        <v>15632046464.228428</v>
       </c>
     </row>
     <row r="114" spans="19:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="S114" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="T114" s="53">
+      <c r="S114" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="T114" s="58">
         <f>R34*(1+(5*X16))</f>
         <v>183593269.79549646</v>
       </c>
     </row>
     <row r="115" spans="19:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="S115" s="54" t="s">
-        <v>156</v>
+      <c r="S115" s="59" t="s">
+        <v>154</v>
       </c>
       <c r="T115" s="60">
         <f>T113/T114</f>
-        <v>62.242877960891867</v>
+        <v>85.144986423744612</v>
       </c>
     </row>
     <row r="116" spans="19:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="S116" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="T116" s="59" cm="1">
+      <c r="S116" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="T116" s="61" cm="1">
         <f t="array" ref="T116">_FV(A1,"Price")</f>
         <v>104.46</v>
       </c>
     </row>
     <row r="117" spans="19:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="S117" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="T117" s="56">
+      <c r="S117" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="T117" s="62">
         <f>T115/T116-1</f>
-        <v>-0.40414629560700865</v>
+        <v>-0.18490344223870747</v>
       </c>
     </row>
     <row r="118" spans="19:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="S118" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="T118" s="57" t="str">
+      <c r="S118" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="T118" s="63" t="str">
         <f>IF(T115&gt;T116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -9735,8 +10156,9 @@
     <hyperlink ref="R36" r:id="rId34" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
     <hyperlink ref="R74" r:id="rId35" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="S1" r:id="rId36" display="https://finbox.com/NASDAQGS:SPLK/explorer/revenue_proj" xr:uid="{33CF42A6-25FA-7441-B7BF-28091DD1069E}"/>
+    <hyperlink ref="X106" r:id="rId37" xr:uid="{B3EB5BBF-5B40-E440-A8AF-3F30F0F987F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId37"/>
+  <drawing r:id="rId38"/>
 </worksheet>
 </file>